--- a/biology/Botanique/Forêt_classée_de_Kakimbo/Forêt_classée_de_Kakimbo.xlsx
+++ b/biology/Botanique/Forêt_classée_de_Kakimbo/Forêt_classée_de_Kakimbo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_class%C3%A9e_de_Kakimbo</t>
+          <t>Forêt_classée_de_Kakimbo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt classée de Kakimbo est une forêt classée située sur la commune de Ratoma près de la littorale nord-est de Conakry en république de Guinée[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt classée de Kakimbo est une forêt classée située sur la commune de Ratoma près de la littorale nord-est de Conakry en république de Guinée.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_class%C3%A9e_de_Kakimbo</t>
+          <t>Forêt_classée_de_Kakimbo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt classée de Kakimbo est une zone protégée pour son stockage des gaz à effet de serre, en 1945 pendant la colonisation, et pendant la première république sous Ahmed Sékou Touré en 1983[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt classée de Kakimbo est une zone protégée pour son stockage des gaz à effet de serre, en 1945 pendant la colonisation, et pendant la première république sous Ahmed Sékou Touré en 1983.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_class%C3%A9e_de_Kakimbo</t>
+          <t>Forêt_classée_de_Kakimbo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt est située en plein cœur de la commune de Ratoma après Kipé en partant vers Taouyah. Elle couvrait une superficie de 117 ha mais aujourd'hui seulement 15[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt est située en plein cœur de la commune de Ratoma après Kipé en partant vers Taouyah. Elle couvrait une superficie de 117 ha mais aujourd'hui seulement 15.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_class%C3%A9e_de_Kakimbo</t>
+          <t>Forêt_classée_de_Kakimbo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone protégée est caractérisée par des forêts, de hauts arbres et ses quatre grottes (Grotte de Kakimbo).
-Cette zone est considérée comme un poumon vert de la capitale. À cause de son climat, elle abrite sept forages de la société des eaux de Guinée (SEG)[4].
+Cette zone est considérée comme un poumon vert de la capitale. À cause de son climat, elle abrite sept forages de la société des eaux de Guinée (SEG).
 </t>
         </is>
       </c>
